--- a/m1/u1/ejercicios/20191028/Funciones lógicas/Basket.xlsx
+++ b/m1/u1/ejercicios/20191028/Funciones lógicas/Basket.xlsx
@@ -283,7 +283,7 @@
     <xf numFmtId="165" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -323,12 +323,13 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Comma [0]" xfId="3"/>
@@ -1900,8 +1901,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="K36" sqref="K36"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="K39" sqref="K39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1923,15 +1924,15 @@
     <row r="1" spans="1:13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
       <c r="J1" s="3"/>
       <c r="L1" s="2"/>
       <c r="M1" s="4"/>
@@ -1994,7 +1995,7 @@
       <c r="I17" s="8">
         <v>1</v>
       </c>
-      <c r="J17" s="22">
+      <c r="J17" s="21">
         <f>I17/SUM(I$17:I$28)</f>
         <v>9.3457943925233638E-3</v>
       </c>
@@ -2031,7 +2032,7 @@
       <c r="I18" s="8">
         <v>17</v>
       </c>
-      <c r="J18" s="22">
+      <c r="J18" s="21">
         <f t="shared" ref="J18:J28" si="1">I18/SUM(I$17:I$28)</f>
         <v>0.15887850467289719</v>
       </c>
@@ -2066,7 +2067,7 @@
       <c r="I19" s="8">
         <v>6</v>
       </c>
-      <c r="J19" s="22">
+      <c r="J19" s="21">
         <f t="shared" si="1"/>
         <v>5.6074766355140186E-2</v>
       </c>
@@ -2099,7 +2100,7 @@
       <c r="I20" s="8">
         <v>11</v>
       </c>
-      <c r="J20" s="22">
+      <c r="J20" s="21">
         <f t="shared" si="1"/>
         <v>0.10280373831775701</v>
       </c>
@@ -2132,7 +2133,7 @@
       <c r="I21" s="8">
         <v>24</v>
       </c>
-      <c r="J21" s="22">
+      <c r="J21" s="21">
         <f t="shared" si="1"/>
         <v>0.22429906542056074</v>
       </c>
@@ -2165,7 +2166,7 @@
       <c r="I22" s="8">
         <v>26</v>
       </c>
-      <c r="J22" s="22">
+      <c r="J22" s="21">
         <f t="shared" si="1"/>
         <v>0.24299065420560748</v>
       </c>
@@ -2200,7 +2201,7 @@
       <c r="I23" s="8">
         <v>7</v>
       </c>
-      <c r="J23" s="22">
+      <c r="J23" s="21">
         <f t="shared" si="1"/>
         <v>6.5420560747663545E-2</v>
       </c>
@@ -2233,7 +2234,7 @@
       <c r="I24" s="8">
         <v>3</v>
       </c>
-      <c r="J24" s="22">
+      <c r="J24" s="21">
         <f t="shared" si="1"/>
         <v>2.8037383177570093E-2</v>
       </c>
@@ -2266,7 +2267,7 @@
       <c r="I25" s="8">
         <v>3</v>
       </c>
-      <c r="J25" s="22">
+      <c r="J25" s="21">
         <f t="shared" si="1"/>
         <v>2.8037383177570093E-2</v>
       </c>
@@ -2301,7 +2302,7 @@
       <c r="I26" s="8">
         <v>5</v>
       </c>
-      <c r="J26" s="22">
+      <c r="J26" s="21">
         <f t="shared" si="1"/>
         <v>4.6728971962616821E-2</v>
       </c>
@@ -2334,7 +2335,7 @@
       <c r="I27" s="8">
         <v>4</v>
       </c>
-      <c r="J27" s="22">
+      <c r="J27" s="21">
         <f t="shared" si="1"/>
         <v>3.7383177570093455E-2</v>
       </c>
@@ -2367,7 +2368,7 @@
       <c r="I28" s="8">
         <v>0</v>
       </c>
-      <c r="J28" s="22">
+      <c r="J28" s="21">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2421,7 +2422,10 @@
       <c r="H37" s="15"/>
       <c r="I37" s="15"/>
       <c r="J37" s="16"/>
-      <c r="K37" s="19"/>
+      <c r="K37" s="23">
+        <f>AVERAGE(I17:I28)</f>
+        <v>8.9166666666666661</v>
+      </c>
     </row>
     <row r="38" spans="2:11" ht="13.5" x14ac:dyDescent="0.25">
       <c r="B38" s="14" t="s">
